--- a/xlsx/旧金山湾_intext.xlsx
+++ b/xlsx/旧金山湾_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>旧金山湾</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_旧金山湾</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8F%A3%E6%B9%BE</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/East_Bay_(San_Francisco_Bay_Area)</t>
@@ -65,31 +65,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>奧克蘭</t>
+    <t>奥克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF</t>
   </si>
   <si>
-    <t>聖荷西</t>
+    <t>圣荷西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF%E5%B3%B6</t>
   </si>
   <si>
-    <t>天使島</t>
+    <t>天使岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94</t>
   </si>
   <si>
-    <t>阿拉米達</t>
+    <t>阿拉米达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8A%80%E5%B3%B6_(%E8%88%8A%E9%87%91%E5%B1%B1)</t>
   </si>
   <si>
-    <t>金銀島 (舊金山)</t>
+    <t>金银岛 (旧金山)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Naval_Station_Treasure_Island</t>
@@ -101,25 +101,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%A1%E7%89%B9%E6%8B%89%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿爾卡特拉斯島</t>
+    <t>阿尔卡特拉斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>海灣大橋</t>
+    <t>海湾大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E6%A9%8B</t>
   </si>
   <si>
-    <t>金門橋</t>
+    <t>金门桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -143,13 +143,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3</t>
@@ -1138,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -1164,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -1193,10 +1190,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
